--- a/joft mozdi tafkiki farvardin 1403.xlsx
+++ b/joft mozdi tafkiki farvardin 1403.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="935" firstSheet="8" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <externalReference r:id="rId26"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$933</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$935</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">اتوپنجه!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">آستربرگردون!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">استرینگ!$A$1:$F$1</definedName>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5709" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5721" uniqueCount="106">
   <si>
     <t>812/4</t>
   </si>
@@ -597,7 +597,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="61">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1137,21 +1158,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:G933" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48" headerRowCellStyle="Normal 2" dataCellStyle="Normal">
-  <autoFilter ref="B1:G933">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="3175"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:G935" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51" headerRowCellStyle="Normal 2" dataCellStyle="Normal">
+  <autoFilter ref="B1:G935"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="تاریخ" dataDxfId="47" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="مدل" dataDxfId="46" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="نوع کار" dataDxfId="45" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="نام پرسنل" dataDxfId="44" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="کد تولید" dataDxfId="43" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="تعداد جفت" dataDxfId="42" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="تاریخ" dataDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="مدل" dataDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="نوع کار" dataDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="نام پرسنل" dataDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="کد تولید" dataDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="تعداد جفت" dataDxfId="45" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1444,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G933"/>
+  <dimension ref="A1:G935"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F936" sqref="F936"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="8">
         <v>4</v>
@@ -1502,7 +1517,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="8">
         <v>4</v>
@@ -1523,7 +1538,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8">
         <v>4</v>
@@ -1544,7 +1559,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="8">
         <v>4</v>
@@ -1565,7 +1580,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="8">
         <v>4</v>
@@ -1586,7 +1601,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="8">
         <v>4</v>
@@ -1607,7 +1622,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="8">
         <v>9</v>
@@ -1628,7 +1643,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="8">
         <v>9</v>
@@ -1649,7 +1664,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="8">
         <v>9</v>
@@ -1670,7 +1685,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="8">
         <v>4</v>
@@ -1691,7 +1706,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="8">
         <v>4</v>
@@ -1712,7 +1727,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="8">
         <v>9</v>
@@ -1733,7 +1748,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="8">
         <v>9</v>
@@ -1754,7 +1769,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="8">
         <v>9</v>
@@ -1775,7 +1790,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="8">
         <v>7</v>
@@ -1796,7 +1811,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="8">
         <v>7</v>
@@ -1817,7 +1832,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="8">
         <v>7</v>
@@ -1838,7 +1853,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="8">
         <v>7</v>
@@ -1859,7 +1874,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="8">
         <v>7</v>
@@ -1880,7 +1895,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="8">
         <v>7</v>
@@ -1901,7 +1916,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="8">
         <v>8</v>
@@ -1922,7 +1937,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="8">
         <v>8</v>
@@ -1943,7 +1958,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="8">
         <v>8</v>
@@ -1964,7 +1979,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="8">
         <v>8</v>
@@ -1985,7 +2000,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="8">
         <v>8</v>
@@ -2006,7 +2021,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="8">
         <v>8</v>
@@ -2027,7 +2042,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="8">
         <v>2</v>
@@ -2048,7 +2063,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="8">
         <v>2</v>
@@ -2069,7 +2084,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="8">
         <v>2</v>
@@ -2090,7 +2105,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="8">
         <v>2</v>
@@ -2111,7 +2126,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="8">
         <v>1</v>
@@ -2132,7 +2147,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="8">
         <v>1</v>
@@ -2153,7 +2168,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="8">
         <v>1</v>
@@ -2174,7 +2189,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="8">
         <v>1</v>
@@ -2195,7 +2210,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="8">
         <v>1</v>
@@ -2216,7 +2231,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="8">
         <v>1</v>
@@ -2237,7 +2252,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="8">
         <v>5</v>
@@ -2258,7 +2273,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="8">
         <v>5</v>
@@ -2279,7 +2294,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="8">
         <v>8</v>
@@ -2300,7 +2315,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="8">
         <v>4</v>
@@ -2321,7 +2336,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="8">
         <v>4</v>
@@ -2342,7 +2357,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="8">
         <v>7</v>
@@ -2363,7 +2378,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="8">
         <v>7</v>
@@ -2384,7 +2399,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="8">
         <v>7</v>
@@ -2405,7 +2420,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="8">
         <v>7</v>
@@ -2426,7 +2441,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="8">
         <v>7</v>
@@ -2447,7 +2462,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="8">
         <v>7</v>
@@ -2468,7 +2483,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="8">
         <v>7</v>
@@ -2489,7 +2504,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="8">
         <v>7</v>
@@ -2510,7 +2525,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="8">
         <v>7</v>
@@ -2531,7 +2546,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="8">
         <v>9</v>
@@ -2552,7 +2567,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="8">
         <v>9</v>
@@ -2573,7 +2588,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="8">
         <v>6</v>
@@ -2594,7 +2609,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="8">
         <v>6</v>
@@ -2615,7 +2630,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="8">
         <v>6</v>
@@ -2636,7 +2651,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="8">
         <v>6</v>
@@ -2657,7 +2672,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="8">
         <v>8</v>
@@ -2678,7 +2693,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="8">
         <v>8</v>
@@ -2699,7 +2714,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="8">
         <v>8</v>
@@ -2720,7 +2735,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="8">
         <v>8</v>
@@ -2741,7 +2756,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="8">
         <v>8</v>
@@ -2762,7 +2777,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="8">
         <v>8</v>
@@ -2783,7 +2798,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="8">
         <v>8</v>
@@ -2804,7 +2819,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="8">
         <v>7</v>
@@ -2825,7 +2840,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="8">
         <v>7</v>
@@ -2846,7 +2861,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="8">
         <v>7</v>
@@ -2867,7 +2882,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="8">
         <v>7</v>
@@ -2888,7 +2903,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="8">
         <v>7</v>
@@ -2909,7 +2924,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="8">
         <v>7</v>
@@ -2930,7 +2945,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="8">
         <v>6</v>
@@ -2951,7 +2966,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="8">
         <v>8</v>
@@ -2972,7 +2987,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="8">
         <v>8</v>
@@ -2993,7 +3008,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="8">
         <v>8</v>
@@ -3014,7 +3029,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="8">
         <v>8</v>
@@ -3035,7 +3050,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="8">
         <v>7</v>
@@ -3056,7 +3071,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="8">
         <v>7</v>
@@ -3077,7 +3092,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="8">
         <v>7</v>
@@ -3098,7 +3113,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="8">
         <v>7</v>
@@ -3119,7 +3134,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="8">
         <v>5</v>
@@ -3140,7 +3155,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="8">
         <v>5</v>
@@ -3161,7 +3176,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="8">
         <v>5</v>
@@ -3182,7 +3197,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="8">
         <v>5</v>
@@ -3203,7 +3218,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="8">
         <v>1</v>
@@ -3224,7 +3239,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="8">
         <v>1</v>
@@ -3245,7 +3260,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="8">
         <v>1</v>
@@ -3266,7 +3281,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="8">
         <v>1</v>
@@ -3287,7 +3302,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="8">
         <v>5</v>
@@ -3308,7 +3323,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="8">
         <v>2</v>
@@ -3329,7 +3344,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="8">
         <v>2</v>
@@ -3350,7 +3365,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="8">
         <v>5</v>
@@ -3371,7 +3386,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="8">
         <v>6</v>
@@ -3392,7 +3407,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="8">
         <v>6</v>
@@ -3413,7 +3428,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="8">
         <v>6</v>
@@ -3434,7 +3449,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="8">
         <v>6</v>
@@ -3455,7 +3470,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="8">
         <v>1</v>
@@ -3476,7 +3491,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="8">
         <v>1</v>
@@ -3497,7 +3512,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="8">
         <v>1</v>
@@ -3518,7 +3533,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="8">
         <v>1</v>
@@ -3539,7 +3554,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="8">
         <v>4</v>
@@ -3560,7 +3575,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="8">
         <v>2</v>
@@ -3581,7 +3596,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="8">
         <v>2</v>
@@ -3602,7 +3617,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="8">
         <v>2</v>
@@ -3623,7 +3638,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="8">
         <v>2</v>
@@ -3644,7 +3659,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="8">
         <v>2</v>
@@ -3665,7 +3680,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="8">
         <v>2</v>
@@ -3686,7 +3701,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="8">
         <v>2</v>
@@ -3707,7 +3722,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="8">
         <v>2</v>
@@ -3728,7 +3743,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="8">
         <v>2</v>
@@ -3749,7 +3764,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="8">
         <v>2</v>
@@ -3770,7 +3785,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="8">
         <v>6</v>
@@ -3791,7 +3806,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="8">
         <v>7</v>
@@ -3812,7 +3827,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="8">
         <v>4</v>
@@ -3833,7 +3848,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="8">
         <v>4</v>
@@ -3854,7 +3869,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="8">
         <v>4</v>
@@ -3875,7 +3890,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="8">
         <v>1</v>
@@ -3896,7 +3911,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="8">
         <v>1</v>
@@ -3917,7 +3932,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="8">
         <v>1</v>
@@ -3938,7 +3953,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="8">
         <v>4</v>
@@ -3959,7 +3974,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="8">
         <v>4</v>
@@ -3978,7 +3993,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="8">
         <v>9</v>
@@ -3999,7 +4014,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="8">
         <v>9</v>
@@ -4020,7 +4035,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="8">
         <v>9</v>
@@ -4041,7 +4056,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="8">
         <v>9</v>
@@ -4062,7 +4077,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="8">
         <v>9</v>
@@ -4083,7 +4098,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="8">
         <v>1</v>
@@ -4104,7 +4119,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="8">
         <v>1</v>
@@ -4125,7 +4140,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="8">
         <v>1</v>
@@ -4146,7 +4161,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="8">
         <v>2</v>
@@ -4167,7 +4182,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="8">
         <v>2</v>
@@ -4188,7 +4203,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="8">
         <v>2</v>
@@ -4209,7 +4224,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="8">
         <v>4</v>
@@ -4230,7 +4245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="8">
         <v>4</v>
@@ -4251,7 +4266,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="8">
         <v>5</v>
@@ -4272,7 +4287,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="8">
         <v>5</v>
@@ -4293,7 +4308,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="8">
         <v>6</v>
@@ -4314,7 +4329,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="8">
         <v>6</v>
@@ -4333,7 +4348,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="8">
         <v>7</v>
@@ -4354,7 +4369,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="8">
         <v>7</v>
@@ -4375,7 +4390,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="8">
         <v>7</v>
@@ -4396,7 +4411,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="8">
         <v>6</v>
@@ -4417,7 +4432,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="8">
         <v>6</v>
@@ -4438,7 +4453,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="8">
         <v>6</v>
@@ -4459,7 +4474,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="8">
         <v>6</v>
@@ -4480,7 +4495,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="8">
         <v>6</v>
@@ -4501,7 +4516,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="8">
         <v>8</v>
@@ -4522,7 +4537,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="8">
         <v>8</v>
@@ -4543,7 +4558,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="8">
         <v>8</v>
@@ -4564,7 +4579,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="8">
         <v>8</v>
@@ -4585,7 +4600,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="8">
         <v>8</v>
@@ -4606,7 +4621,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="8">
         <v>8</v>
@@ -4627,7 +4642,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="8">
         <v>8</v>
@@ -4648,7 +4663,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="8">
         <v>8</v>
@@ -4669,7 +4684,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="8">
         <v>8</v>
@@ -4690,7 +4705,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="8">
         <v>8</v>
@@ -4711,7 +4726,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="8">
         <v>8</v>
@@ -4732,7 +4747,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="8">
         <v>8</v>
@@ -4753,7 +4768,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="8">
         <v>8</v>
@@ -4774,7 +4789,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="8">
         <v>7</v>
@@ -4795,7 +4810,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="8">
         <v>7</v>
@@ -4816,7 +4831,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="8">
         <v>7</v>
@@ -4835,7 +4850,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="8">
         <v>7</v>
@@ -4856,7 +4871,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="8">
         <v>7</v>
@@ -4877,7 +4892,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="8">
         <v>7</v>
@@ -4898,7 +4913,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="8">
         <v>7</v>
@@ -4919,7 +4934,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="8">
         <v>7</v>
@@ -4940,7 +4955,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="8">
         <v>7</v>
@@ -4961,7 +4976,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="8">
         <v>7</v>
@@ -4982,7 +4997,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="8">
         <v>7</v>
@@ -5003,7 +5018,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="8">
         <v>7</v>
@@ -5024,7 +5039,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="8">
         <v>7</v>
@@ -5045,7 +5060,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="8">
         <v>4</v>
@@ -5066,7 +5081,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="8">
         <v>4</v>
@@ -5087,7 +5102,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="8">
         <v>4</v>
@@ -5108,7 +5123,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="8">
         <v>4</v>
@@ -5129,7 +5144,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="8">
         <v>4</v>
@@ -5150,7 +5165,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="8">
         <v>4</v>
@@ -5171,7 +5186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="8">
         <v>4</v>
@@ -5192,7 +5207,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="8">
         <v>4</v>
@@ -5213,7 +5228,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="8">
         <v>4</v>
@@ -5234,7 +5249,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="8">
         <v>4</v>
@@ -5255,7 +5270,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="8">
         <v>4</v>
@@ -5276,7 +5291,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="8">
         <v>5</v>
@@ -5297,7 +5312,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="8">
         <v>5</v>
@@ -5318,7 +5333,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="8">
         <v>5</v>
@@ -5339,7 +5354,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="8">
         <v>5</v>
@@ -5360,7 +5375,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="8">
         <v>5</v>
@@ -5381,7 +5396,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="8">
         <v>5</v>
@@ -5402,7 +5417,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="8">
         <v>5</v>
@@ -5423,7 +5438,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="8">
         <v>1</v>
@@ -5444,7 +5459,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="8">
         <v>1</v>
@@ -5465,7 +5480,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="8">
         <v>1</v>
@@ -5486,7 +5501,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="8">
         <v>1</v>
@@ -5507,7 +5522,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="8">
         <v>1</v>
@@ -5528,7 +5543,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="8">
         <v>1</v>
@@ -5549,7 +5564,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="8">
         <v>1</v>
@@ -5570,7 +5585,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="8">
         <v>1</v>
@@ -5591,7 +5606,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="8">
         <v>1</v>
@@ -5612,7 +5627,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="8">
         <v>1</v>
@@ -5633,7 +5648,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="8">
         <v>1</v>
@@ -5654,7 +5669,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="8">
         <v>1</v>
@@ -5675,7 +5690,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="8">
         <v>1</v>
@@ -5696,7 +5711,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="8">
         <v>1</v>
@@ -5717,7 +5732,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="8">
         <v>1</v>
@@ -5738,7 +5753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="8">
         <v>1</v>
@@ -5759,7 +5774,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="8">
         <v>2</v>
@@ -5780,7 +5795,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="8">
         <v>2</v>
@@ -5801,7 +5816,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="8">
         <v>2</v>
@@ -5822,7 +5837,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="8">
         <v>2</v>
@@ -5843,7 +5858,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="8">
         <v>2</v>
@@ -5864,7 +5879,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="8">
         <v>2</v>
@@ -5885,7 +5900,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="8">
         <v>2</v>
@@ -5906,7 +5921,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="8">
         <v>2</v>
@@ -5927,7 +5942,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="8">
         <v>2</v>
@@ -5948,7 +5963,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="8">
         <v>2</v>
@@ -5969,7 +5984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="8">
         <v>2</v>
@@ -5990,7 +6005,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="8">
         <v>2</v>
@@ -6011,7 +6026,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="8">
         <v>2</v>
@@ -6032,7 +6047,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="8">
         <v>2</v>
@@ -6053,7 +6068,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="8">
         <v>2</v>
@@ -6074,7 +6089,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="8">
         <v>2</v>
@@ -6095,7 +6110,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="8">
         <v>2</v>
@@ -6116,7 +6131,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="8">
         <v>2</v>
@@ -6137,7 +6152,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="8">
         <v>9</v>
@@ -6158,7 +6173,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="8">
         <v>9</v>
@@ -6179,7 +6194,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="8">
         <v>9</v>
@@ -6200,7 +6215,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="8">
         <v>9</v>
@@ -6221,7 +6236,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="8">
         <v>9</v>
@@ -6242,7 +6257,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="8">
         <v>9</v>
@@ -6263,7 +6278,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="8">
         <v>9</v>
@@ -6284,7 +6299,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="8">
         <v>9</v>
@@ -6305,7 +6320,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="8">
         <v>9</v>
@@ -6326,7 +6341,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="8">
         <v>14</v>
@@ -6347,7 +6362,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="8">
         <v>14</v>
@@ -6368,7 +6383,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="8">
         <v>8</v>
@@ -6389,7 +6404,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="8">
         <v>8</v>
@@ -6410,7 +6425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="8">
         <v>15</v>
@@ -6431,7 +6446,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="8">
         <v>14</v>
@@ -6452,7 +6467,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="8">
         <v>14</v>
@@ -6473,7 +6488,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="8">
         <v>14</v>
@@ -6494,7 +6509,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="8">
         <v>14</v>
@@ -6515,7 +6530,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="8">
         <v>14</v>
@@ -6536,7 +6551,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="8">
         <v>14</v>
@@ -6557,7 +6572,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="8">
         <v>14</v>
@@ -6578,7 +6593,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="8">
         <v>14</v>
@@ -6599,7 +6614,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="8">
         <v>9</v>
@@ -6620,7 +6635,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="8">
         <v>9</v>
@@ -6641,7 +6656,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="8">
         <v>9</v>
@@ -6662,7 +6677,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="8">
         <v>9</v>
@@ -6683,7 +6698,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="8">
         <v>15</v>
@@ -6704,7 +6719,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="8">
         <v>15</v>
@@ -6725,7 +6740,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="8">
         <v>14</v>
@@ -6746,7 +6761,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="8">
         <v>14</v>
@@ -6767,7 +6782,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="8">
         <v>14</v>
@@ -6788,7 +6803,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8" t="s">
@@ -6807,7 +6822,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8" t="s">
@@ -6826,7 +6841,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8" t="s">
@@ -6845,7 +6860,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8" t="s">
@@ -6864,7 +6879,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8" t="s">
@@ -6883,7 +6898,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8" t="s">
@@ -6902,7 +6917,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="8">
         <v>15</v>
@@ -6923,7 +6938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="8">
         <v>15</v>
@@ -6944,7 +6959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="8">
         <v>15</v>
@@ -6965,7 +6980,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="8">
         <v>15</v>
@@ -6986,7 +7001,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="8">
         <v>15</v>
@@ -7007,7 +7022,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="8">
         <v>15</v>
@@ -7028,7 +7043,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="8">
         <v>16</v>
@@ -7049,7 +7064,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="8">
         <v>16</v>
@@ -7070,7 +7085,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="8">
         <v>16</v>
@@ -7091,7 +7106,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="8">
         <v>16</v>
@@ -7112,7 +7127,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="8">
         <v>16</v>
@@ -7133,7 +7148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="8">
         <v>16</v>
@@ -7154,7 +7169,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="8">
         <v>16</v>
@@ -7175,7 +7190,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="8">
         <v>16</v>
@@ -7196,7 +7211,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="8">
         <v>16</v>
@@ -7217,7 +7232,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="8">
         <v>16</v>
@@ -7238,7 +7253,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="8">
         <v>16</v>
@@ -7259,7 +7274,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="8">
         <v>16</v>
@@ -7280,7 +7295,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="8">
         <v>12</v>
@@ -7301,7 +7316,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="8">
         <v>12</v>
@@ -7322,7 +7337,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="8">
         <v>14</v>
@@ -7343,7 +7358,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="8">
         <v>14</v>
@@ -7364,7 +7379,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>8</v>
       </c>
@@ -7387,7 +7402,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="8">
         <v>14</v>
@@ -7408,7 +7423,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="8">
         <v>14</v>
@@ -7429,7 +7444,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="8">
         <v>14</v>
@@ -7450,7 +7465,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="8">
         <v>15</v>
@@ -7471,7 +7486,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="8">
         <v>15</v>
@@ -7492,7 +7507,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="8">
         <v>15</v>
@@ -7513,7 +7528,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="8">
         <v>15</v>
@@ -7534,7 +7549,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="8">
         <v>17</v>
@@ -7555,7 +7570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="8">
         <v>17</v>
@@ -7576,7 +7591,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="8">
         <v>17</v>
@@ -7597,7 +7612,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="8">
         <v>17</v>
@@ -7618,7 +7633,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="8">
         <v>17</v>
@@ -7639,7 +7654,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="8">
         <v>17</v>
@@ -7660,7 +7675,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>19</v>
       </c>
@@ -7683,7 +7698,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="8">
         <v>17</v>
@@ -7704,7 +7719,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="8">
         <v>17</v>
@@ -7725,7 +7740,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="8">
         <v>17</v>
@@ -7746,7 +7761,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="8">
         <v>17</v>
@@ -7767,7 +7782,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="8">
         <v>17</v>
@@ -7788,7 +7803,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="8">
         <v>19</v>
@@ -7809,7 +7824,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="8">
         <v>19</v>
@@ -7830,7 +7845,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="8">
         <v>19</v>
@@ -7851,7 +7866,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="8">
         <v>19</v>
@@ -7872,7 +7887,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="8">
         <v>19</v>
@@ -7893,7 +7908,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="8">
         <v>19</v>
@@ -7914,7 +7929,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="8">
         <v>19</v>
@@ -7935,7 +7950,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="8">
         <v>19</v>
@@ -7956,7 +7971,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="8">
         <v>19</v>
@@ -7977,7 +7992,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="8">
         <v>19</v>
@@ -7998,7 +8013,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="8">
         <v>19</v>
@@ -8019,7 +8034,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="8">
         <v>19</v>
@@ -8040,7 +8055,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="8">
         <v>19</v>
@@ -8061,7 +8076,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="8">
         <v>19</v>
@@ -8082,7 +8097,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="8">
         <v>14</v>
@@ -8103,7 +8118,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="8">
         <v>14</v>
@@ -8124,7 +8139,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="8">
         <v>14</v>
@@ -8145,7 +8160,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="8">
         <v>14</v>
@@ -8166,7 +8181,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="8">
         <v>14</v>
@@ -8187,7 +8202,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="8">
         <v>14</v>
@@ -8208,7 +8223,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="8">
         <v>14</v>
@@ -8229,7 +8244,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="8">
         <v>15</v>
@@ -8250,7 +8265,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="8">
         <v>15</v>
@@ -8271,7 +8286,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="8">
         <v>15</v>
@@ -8292,7 +8307,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="8">
         <v>15</v>
@@ -8313,7 +8328,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="8">
         <v>15</v>
@@ -8334,7 +8349,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="8">
         <v>15</v>
@@ -8355,7 +8370,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="8">
         <v>14</v>
@@ -8376,7 +8391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="8"/>
       <c r="C331" s="8" t="s">
@@ -8395,7 +8410,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="8"/>
       <c r="C332" s="8" t="s">
@@ -8414,7 +8429,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="8"/>
       <c r="C333" s="8" t="s">
@@ -8433,7 +8448,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="8"/>
       <c r="C334" s="8" t="s">
@@ -8452,7 +8467,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="8"/>
       <c r="C335" s="8" t="s">
@@ -8471,7 +8486,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="8"/>
       <c r="C336" s="8" t="s">
@@ -8490,7 +8505,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="8"/>
       <c r="C337" s="8" t="s">
@@ -8509,7 +8524,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="8"/>
       <c r="C338" s="8" t="s">
@@ -8528,7 +8543,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="8"/>
       <c r="C339" s="8" t="s">
@@ -8547,7 +8562,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="8">
         <v>18</v>
@@ -8568,7 +8583,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="8">
         <v>18</v>
@@ -8589,7 +8604,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="8">
         <v>16</v>
@@ -8608,7 +8623,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="8">
         <v>16</v>
@@ -8629,7 +8644,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="8">
         <v>16</v>
@@ -8650,7 +8665,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="8">
         <v>16</v>
@@ -8671,7 +8686,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="8">
         <v>14</v>
@@ -8692,7 +8707,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="8">
         <v>14</v>
@@ -8713,7 +8728,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="8">
         <v>14</v>
@@ -8734,7 +8749,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="8">
         <v>16</v>
@@ -8755,7 +8770,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="8">
         <v>16</v>
@@ -8776,7 +8791,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="8">
         <v>16</v>
@@ -8797,7 +8812,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="8">
         <v>16</v>
@@ -8818,7 +8833,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="8">
         <v>14</v>
@@ -8839,7 +8854,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="8">
         <v>15</v>
@@ -8860,7 +8875,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="8">
         <v>14</v>
@@ -8881,7 +8896,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="8">
         <v>15</v>
@@ -8902,7 +8917,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="8">
         <v>16</v>
@@ -8923,7 +8938,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="8">
         <v>18</v>
@@ -8944,7 +8959,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="8">
         <v>18</v>
@@ -8965,7 +8980,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="8">
         <v>15</v>
@@ -8986,7 +9001,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="8">
         <v>15</v>
@@ -9007,7 +9022,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="8">
         <v>16</v>
@@ -9028,7 +9043,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="8">
         <v>16</v>
@@ -9049,7 +9064,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="8">
         <v>14</v>
@@ -9070,7 +9085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="8">
         <v>15</v>
@@ -9091,7 +9106,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="8">
         <v>14</v>
@@ -9112,7 +9127,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="8">
         <v>14</v>
@@ -9133,7 +9148,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="8">
         <v>15</v>
@@ -9154,7 +9169,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="8">
         <v>15</v>
@@ -9175,7 +9190,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="8">
         <v>15</v>
@@ -9196,7 +9211,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="8">
         <v>17</v>
@@ -9217,7 +9232,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8" t="s">
@@ -9236,7 +9251,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="8"/>
       <c r="C373" s="8" t="s">
@@ -9255,7 +9270,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8" t="s">
@@ -9274,7 +9289,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="8"/>
       <c r="C375" s="8" t="s">
@@ -9293,7 +9308,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="8"/>
       <c r="C376" s="8" t="s">
@@ -9312,7 +9327,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="8">
         <v>16</v>
@@ -9333,7 +9348,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="8">
         <v>15</v>
@@ -9354,7 +9369,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="8">
         <v>15</v>
@@ -9375,7 +9390,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="8">
         <v>18</v>
@@ -9396,7 +9411,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="8">
         <v>18</v>
@@ -9417,7 +9432,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="8">
         <v>18</v>
@@ -9438,7 +9453,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="8">
         <v>18</v>
@@ -9459,7 +9474,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="8">
         <v>18</v>
@@ -9480,7 +9495,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="8">
         <v>18</v>
@@ -9501,7 +9516,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="8">
         <v>18</v>
@@ -9522,7 +9537,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="8">
         <v>18</v>
@@ -9543,7 +9558,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="8">
         <v>18</v>
@@ -9564,7 +9579,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="8">
         <v>18</v>
@@ -9583,7 +9598,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="8">
         <v>18</v>
@@ -9604,7 +9619,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="8">
         <v>18</v>
@@ -9625,7 +9640,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="8">
         <v>18</v>
@@ -9646,7 +9661,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="8">
         <v>16</v>
@@ -9667,7 +9682,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="8">
         <v>16</v>
@@ -9688,7 +9703,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="8">
         <v>18</v>
@@ -9709,7 +9724,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="8">
         <v>18</v>
@@ -9730,7 +9745,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="8">
         <v>18</v>
@@ -9751,7 +9766,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="8">
         <v>18</v>
@@ -9772,7 +9787,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="8">
         <v>18</v>
@@ -9793,7 +9808,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="8">
         <v>18</v>
@@ -9814,7 +9829,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="8">
         <v>15</v>
@@ -9835,7 +9850,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="8">
         <v>15</v>
@@ -9856,7 +9871,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="8">
         <v>16</v>
@@ -9877,7 +9892,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="8">
         <v>16</v>
@@ -9898,7 +9913,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="8">
         <v>16</v>
@@ -9919,7 +9934,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="8">
         <v>19</v>
@@ -9940,7 +9955,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="8">
         <v>19</v>
@@ -9961,7 +9976,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="8">
         <v>19</v>
@@ -9982,7 +9997,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="8">
         <v>19</v>
@@ -10003,7 +10018,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="8">
         <v>19</v>
@@ -10022,7 +10037,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="8">
         <v>19</v>
@@ -10043,7 +10058,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="8">
         <v>19</v>
@@ -10064,7 +10079,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="8">
         <v>19</v>
@@ -10083,7 +10098,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="8">
         <v>19</v>
@@ -10104,7 +10119,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="8">
         <v>19</v>
@@ -10125,7 +10140,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="8">
         <v>19</v>
@@ -10146,7 +10161,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="8">
         <v>19</v>
@@ -10167,7 +10182,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="8">
         <v>19</v>
@@ -10188,7 +10203,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="8">
         <v>19</v>
@@ -10209,7 +10224,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="8">
         <v>19</v>
@@ -10230,7 +10245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="8">
         <v>19</v>
@@ -10251,7 +10266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="8">
         <v>19</v>
@@ -10272,7 +10287,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="8">
         <v>19</v>
@@ -10293,7 +10308,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="8">
         <v>19</v>
@@ -10314,7 +10329,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="8">
         <v>19</v>
@@ -10335,7 +10350,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="8">
         <v>15</v>
@@ -10356,7 +10371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="8">
         <v>21</v>
@@ -10377,7 +10392,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="8">
         <v>21</v>
@@ -10398,7 +10413,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="8">
         <v>21</v>
@@ -10419,7 +10434,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="8">
         <v>19</v>
@@ -10440,7 +10455,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="8">
         <v>20</v>
@@ -10461,7 +10476,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="8">
         <v>20</v>
@@ -10482,7 +10497,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="8">
         <v>20</v>
@@ -10503,7 +10518,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="8">
         <v>20</v>
@@ -10524,7 +10539,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="8">
         <v>20</v>
@@ -10545,7 +10560,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="8">
         <v>20</v>
@@ -10566,7 +10581,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="8">
         <v>20</v>
@@ -10585,7 +10600,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="8">
         <v>20</v>
@@ -10606,7 +10621,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="8">
         <v>20</v>
@@ -10627,7 +10642,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="8">
         <v>20</v>
@@ -10648,7 +10663,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="8">
         <v>20</v>
@@ -10669,7 +10684,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="8">
         <v>20</v>
@@ -10690,7 +10705,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="8">
         <v>20</v>
@@ -10711,7 +10726,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="8">
         <v>20</v>
@@ -10732,7 +10747,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="8">
         <v>21</v>
@@ -10753,7 +10768,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="8">
         <v>21</v>
@@ -10774,7 +10789,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="8">
         <v>21</v>
@@ -10795,7 +10810,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="8">
         <v>21</v>
@@ -10816,7 +10831,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="8">
         <v>21</v>
@@ -10837,7 +10852,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="8">
         <v>21</v>
@@ -10858,7 +10873,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="8">
         <v>21</v>
@@ -10879,7 +10894,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="8">
         <v>21</v>
@@ -10900,7 +10915,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="8">
         <v>21</v>
@@ -10921,7 +10936,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="8">
         <v>21</v>
@@ -10942,7 +10957,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="8">
         <v>21</v>
@@ -10963,7 +10978,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="8">
         <v>21</v>
@@ -10984,7 +10999,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="8">
         <v>21</v>
@@ -11005,7 +11020,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="8">
         <v>21</v>
@@ -11026,7 +11041,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="8">
         <v>21</v>
@@ -11047,7 +11062,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="8">
         <v>21</v>
@@ -11068,7 +11083,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="8">
         <v>21</v>
@@ -11089,7 +11104,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="8">
         <v>21</v>
@@ -11110,7 +11125,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="8">
         <v>21</v>
@@ -11131,7 +11146,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="8">
         <v>21</v>
@@ -11152,7 +11167,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="8">
         <v>21</v>
@@ -11173,7 +11188,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="8">
         <v>21</v>
@@ -11194,7 +11209,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="8">
         <v>24</v>
@@ -11215,7 +11230,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="8">
         <v>25</v>
@@ -11236,7 +11251,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="8">
         <v>25</v>
@@ -11257,7 +11272,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="8">
         <v>25</v>
@@ -11278,7 +11293,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="8">
         <v>25</v>
@@ -11299,7 +11314,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="8">
         <v>25</v>
@@ -11320,7 +11335,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="8">
         <v>25</v>
@@ -11341,7 +11356,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="8">
         <v>25</v>
@@ -11362,7 +11377,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="8">
         <v>25</v>
@@ -11383,7 +11398,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="8">
         <v>25</v>
@@ -11404,7 +11419,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="8">
         <v>25</v>
@@ -11425,7 +11440,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="8">
         <v>25</v>
@@ -11446,7 +11461,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="8">
         <v>25</v>
@@ -11467,7 +11482,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="8">
         <v>25</v>
@@ -11488,7 +11503,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="8">
         <v>25</v>
@@ -11509,7 +11524,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="8">
         <v>25</v>
@@ -11530,7 +11545,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="8">
         <v>25</v>
@@ -11551,7 +11566,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="8">
         <v>25</v>
@@ -11572,7 +11587,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="8">
         <v>25</v>
@@ -11591,7 +11606,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="8">
         <v>25</v>
@@ -11610,7 +11625,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="8">
         <v>25</v>
@@ -11631,7 +11646,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="8">
         <v>18</v>
@@ -11652,7 +11667,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="8">
         <v>18</v>
@@ -11673,7 +11688,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="8">
         <v>18</v>
@@ -11694,7 +11709,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="8">
         <v>18</v>
@@ -11715,7 +11730,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="8">
         <v>18</v>
@@ -11736,7 +11751,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="8">
         <v>18</v>
@@ -11757,7 +11772,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="8">
         <v>19</v>
@@ -11778,7 +11793,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="8">
         <v>19</v>
@@ -11799,7 +11814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="8">
         <v>18</v>
@@ -11820,7 +11835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="8"/>
       <c r="C497" s="8" t="s">
@@ -11839,7 +11854,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="8"/>
       <c r="C498" s="8" t="s">
@@ -11858,7 +11873,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>0</v>
       </c>
@@ -11879,7 +11894,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="8"/>
       <c r="C500" s="8" t="s">
@@ -11898,7 +11913,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="8"/>
       <c r="C501" s="8" t="s">
@@ -11917,7 +11932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="8">
         <v>25</v>
@@ -11936,7 +11951,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="8">
         <v>25</v>
@@ -11955,7 +11970,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="8">
         <v>25</v>
@@ -11976,7 +11991,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="8"/>
       <c r="C505" s="8" t="s">
@@ -11995,7 +12010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="8"/>
       <c r="C506" s="8" t="s">
@@ -12014,7 +12029,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="8"/>
       <c r="C507" s="8" t="s">
@@ -12033,7 +12048,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="8"/>
       <c r="C508" s="8" t="s">
@@ -12052,7 +12067,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="8"/>
       <c r="C509" s="8" t="s">
@@ -12071,7 +12086,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="8"/>
       <c r="C510" s="8" t="s">
@@ -12090,7 +12105,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="8"/>
       <c r="C511" s="8" t="s">
@@ -12109,7 +12124,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="8"/>
       <c r="C512" s="8" t="s">
@@ -12128,7 +12143,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="8"/>
       <c r="C513" s="8" t="s">
@@ -12147,7 +12162,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="8"/>
       <c r="C514" s="8" t="s">
@@ -12166,7 +12181,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="8"/>
       <c r="C515" s="8" t="s">
@@ -12185,7 +12200,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="8"/>
       <c r="C516" s="8" t="s">
@@ -12204,7 +12219,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="8"/>
       <c r="C517" s="8" t="s">
@@ -12223,7 +12238,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="8"/>
       <c r="C518" s="8" t="s">
@@ -12242,7 +12257,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="8"/>
       <c r="C519" s="8" t="s">
@@ -12261,7 +12276,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="8"/>
       <c r="C520" s="8" t="s">
@@ -12280,7 +12295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="8"/>
       <c r="C521" s="8" t="s">
@@ -12299,7 +12314,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="8"/>
       <c r="C522" s="8" t="s">
@@ -12318,7 +12333,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="8"/>
       <c r="C523" s="8" t="s">
@@ -12337,7 +12352,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="8"/>
       <c r="C524" s="8" t="s">
@@ -12356,7 +12371,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="8"/>
       <c r="C525" s="8" t="s">
@@ -12375,7 +12390,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="8"/>
       <c r="C526" s="8" t="s">
@@ -12394,7 +12409,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="8"/>
       <c r="C527" s="8" t="s">
@@ -12413,7 +12428,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="8"/>
       <c r="C528" s="8" t="s">
@@ -12432,7 +12447,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="8"/>
       <c r="C529" s="8" t="s">
@@ -12451,7 +12466,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="8"/>
       <c r="C530" s="8" t="s">
@@ -12470,7 +12485,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="8"/>
       <c r="C531" s="8" t="s">
@@ -12489,7 +12504,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="8"/>
       <c r="C532" s="8" t="s">
@@ -12508,7 +12523,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="8"/>
       <c r="C533" s="8" t="s">
@@ -12527,7 +12542,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="8"/>
       <c r="C534" s="8" t="s">
@@ -12546,7 +12561,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="8"/>
       <c r="C535" s="8" t="s">
@@ -12565,7 +12580,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="8"/>
       <c r="C536" s="8" t="s">
@@ -12584,7 +12599,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="8"/>
       <c r="C537" s="8" t="s">
@@ -12603,7 +12618,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="8"/>
       <c r="C538" s="8" t="s">
@@ -12622,7 +12637,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="8"/>
       <c r="C539" s="8" t="s">
@@ -12641,7 +12656,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="8"/>
       <c r="C540" s="8" t="s">
@@ -12660,7 +12675,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="8"/>
       <c r="C541" s="8" t="s">
@@ -12698,7 +12713,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="8"/>
       <c r="C543" s="8" t="s">
@@ -12717,7 +12732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="8"/>
       <c r="C544" s="8" t="s">
@@ -12736,7 +12751,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="8">
         <v>18</v>
@@ -12757,7 +12772,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="8">
         <v>20</v>
@@ -12778,7 +12793,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="8">
         <v>21</v>
@@ -12799,7 +12814,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="8">
         <v>21</v>
@@ -12820,7 +12835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="8">
         <v>25</v>
@@ -12841,7 +12856,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="8">
         <v>25</v>
@@ -12862,7 +12877,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="8">
         <v>26</v>
@@ -12883,7 +12898,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="8">
         <v>26</v>
@@ -12904,7 +12919,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="8"/>
       <c r="C553" s="8" t="s">
@@ -12923,7 +12938,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="8"/>
       <c r="C554" s="8" t="s">
@@ -12942,7 +12957,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="8"/>
       <c r="C555" s="8" t="s">
@@ -12961,7 +12976,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="8">
         <v>20</v>
@@ -12982,7 +12997,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="8">
         <v>20</v>
@@ -13003,7 +13018,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="8">
         <v>25</v>
@@ -13024,7 +13039,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="8">
         <v>25</v>
@@ -13045,7 +13060,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="8">
         <v>25</v>
@@ -13066,7 +13081,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="8">
         <v>25</v>
@@ -13087,7 +13102,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="8">
         <v>25</v>
@@ -13108,7 +13123,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="8">
         <v>25</v>
@@ -13129,7 +13144,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="8">
         <v>25</v>
@@ -13150,7 +13165,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="8">
         <v>25</v>
@@ -13171,7 +13186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="8">
         <v>25</v>
@@ -13192,7 +13207,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="8">
         <v>25</v>
@@ -13213,7 +13228,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="8">
         <v>25</v>
@@ -13234,7 +13249,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="8">
         <v>25</v>
@@ -13255,7 +13270,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="8">
         <v>25</v>
@@ -13276,7 +13291,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="8">
         <v>25</v>
@@ -13297,7 +13312,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="572" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="8">
         <v>25</v>
@@ -13318,7 +13333,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="573" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="8">
         <v>25</v>
@@ -13339,7 +13354,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="8">
         <v>25</v>
@@ -13360,7 +13375,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="8">
         <v>21</v>
@@ -13381,7 +13396,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="8">
         <v>21</v>
@@ -13402,7 +13417,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="8">
         <v>21</v>
@@ -13423,7 +13438,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="8">
         <v>21</v>
@@ -13444,7 +13459,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="8">
         <v>21</v>
@@ -13465,7 +13480,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="8">
         <v>21</v>
@@ -13486,7 +13501,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="581" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="8">
         <v>21</v>
@@ -13507,7 +13522,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="8">
         <v>21</v>
@@ -13528,7 +13543,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="8">
         <v>21</v>
@@ -13549,7 +13564,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="584" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="8">
         <v>21</v>
@@ -13570,7 +13585,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="585" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="8">
         <v>21</v>
@@ -13591,7 +13606,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="586" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="8">
         <v>21</v>
@@ -13612,7 +13627,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="8">
         <v>21</v>
@@ -13633,7 +13648,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="8">
         <v>21</v>
@@ -13654,7 +13669,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="8">
         <v>21</v>
@@ -13675,7 +13690,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="590" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="8">
         <v>21</v>
@@ -13696,7 +13711,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="8">
         <v>20</v>
@@ -13717,7 +13732,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="8">
         <v>20</v>
@@ -13738,7 +13753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="593" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="8">
         <v>20</v>
@@ -13759,7 +13774,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="8">
         <v>20</v>
@@ -13780,7 +13795,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="8">
         <v>20</v>
@@ -13801,7 +13816,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="596" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="8">
         <v>20</v>
@@ -13822,7 +13837,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="8">
         <v>20</v>
@@ -13843,7 +13858,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="8">
         <v>20</v>
@@ -13864,7 +13879,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="8">
         <v>20</v>
@@ -13885,7 +13900,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="8">
         <v>20</v>
@@ -13906,7 +13921,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="8">
         <v>20</v>
@@ -13927,7 +13942,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="8">
         <v>20</v>
@@ -13948,7 +13963,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="8">
         <v>20</v>
@@ -13969,7 +13984,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="8">
         <v>20</v>
@@ -13990,7 +14005,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="8">
         <v>20</v>
@@ -14011,7 +14026,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="606" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="8">
         <v>20</v>
@@ -14032,7 +14047,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="8">
         <v>20</v>
@@ -14053,7 +14068,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="8"/>
       <c r="C608" s="8" t="s">
@@ -14072,7 +14087,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="8"/>
       <c r="C609" s="8" t="s">
@@ -14091,7 +14106,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="8"/>
       <c r="C610" s="8" t="s">
@@ -14110,7 +14125,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="8"/>
       <c r="C611" s="8" t="s">
@@ -14129,7 +14144,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="8">
         <v>20</v>
@@ -14150,7 +14165,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="8">
         <v>21</v>
@@ -14171,7 +14186,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="8">
         <v>14</v>
@@ -14192,7 +14207,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="8">
         <v>20</v>
@@ -14213,7 +14228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="8">
         <v>25</v>
@@ -14234,7 +14249,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="8">
         <v>20</v>
@@ -14255,7 +14270,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="8"/>
       <c r="C618" s="8" t="s">
@@ -14274,7 +14289,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="8">
         <v>20</v>
@@ -14295,7 +14310,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="8"/>
       <c r="C620" s="8" t="s">
@@ -14314,7 +14329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="8"/>
       <c r="C621" s="8" t="s">
@@ -14333,7 +14348,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="8"/>
       <c r="C622" s="8" t="s">
@@ -14352,7 +14367,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A623" s="3"/>
       <c r="B623" s="8">
         <v>26</v>
@@ -14373,7 +14388,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="624" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A624" s="3"/>
       <c r="B624" s="8">
         <v>25</v>
@@ -14394,7 +14409,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A625" s="3"/>
       <c r="B625" s="8">
         <v>25</v>
@@ -14415,7 +14430,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A626" s="3"/>
       <c r="B626" s="8">
         <v>25</v>
@@ -14457,7 +14472,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A628" s="3"/>
       <c r="B628" s="8">
         <v>20</v>
@@ -14478,7 +14493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="8">
         <v>20</v>
@@ -14499,7 +14514,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="8">
         <v>19</v>
@@ -14520,7 +14535,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="8">
         <v>21</v>
@@ -14541,7 +14556,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="8">
         <v>25</v>
@@ -14562,7 +14577,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="8">
         <v>18</v>
@@ -14583,7 +14598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="634" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="8">
         <v>18</v>
@@ -14604,7 +14619,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="8">
         <v>19</v>
@@ -14625,7 +14640,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="636" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="8">
         <v>20</v>
@@ -14646,7 +14661,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="8"/>
       <c r="C637" s="8" t="s">
@@ -14665,7 +14680,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="8"/>
       <c r="C638" s="8" t="s">
@@ -14684,7 +14699,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="8"/>
       <c r="C639" s="8" t="s">
@@ -14703,7 +14718,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="8"/>
       <c r="C640" s="8" t="s">
@@ -14722,7 +14737,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="8"/>
       <c r="C641" s="8" t="s">
@@ -14741,7 +14756,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="642" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="8"/>
       <c r="C642" s="8" t="s">
@@ -14760,7 +14775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="8"/>
       <c r="C643" s="8" t="s">
@@ -14779,7 +14794,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="8">
         <v>26</v>
@@ -14800,7 +14815,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="8">
         <v>26</v>
@@ -14821,7 +14836,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="8">
         <v>26</v>
@@ -14842,7 +14857,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="8">
         <v>26</v>
@@ -14863,7 +14878,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="8">
         <v>26</v>
@@ -14884,7 +14899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="8">
         <v>26</v>
@@ -14905,7 +14920,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="650" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="8">
         <v>26</v>
@@ -14926,7 +14941,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="8">
         <v>26</v>
@@ -14947,7 +14962,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="8">
         <v>25</v>
@@ -14968,7 +14983,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="653" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="8">
         <v>26</v>
@@ -14989,7 +15004,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="8">
         <v>26</v>
@@ -15010,7 +15025,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="655" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="8">
         <v>26</v>
@@ -15031,7 +15046,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="656" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="8">
         <v>26</v>
@@ -15052,7 +15067,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="8">
         <v>26</v>
@@ -15073,7 +15088,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="8">
         <v>26</v>
@@ -15094,7 +15109,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="8">
         <v>26</v>
@@ -15115,7 +15130,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="8">
         <v>26</v>
@@ -15136,7 +15151,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="8">
         <v>26</v>
@@ -15157,7 +15172,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="8">
         <v>27</v>
@@ -15178,7 +15193,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="8">
         <v>27</v>
@@ -15199,7 +15214,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="8">
         <v>27</v>
@@ -15220,7 +15235,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="8">
         <v>27</v>
@@ -15241,7 +15256,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="8">
         <v>27</v>
@@ -15262,7 +15277,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="8">
         <v>27</v>
@@ -15283,7 +15298,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="8">
         <v>27</v>
@@ -15304,7 +15319,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="8">
         <v>27</v>
@@ -15325,7 +15340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="8">
         <v>27</v>
@@ -15346,7 +15361,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="671" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="8">
         <v>27</v>
@@ -15367,7 +15382,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="8">
         <v>27</v>
@@ -15388,7 +15403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="8">
         <v>27</v>
@@ -15409,7 +15424,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="8">
         <v>27</v>
@@ -15430,7 +15445,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="675" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="8">
         <v>27</v>
@@ -15451,7 +15466,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="676" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="8">
         <v>26</v>
@@ -15472,7 +15487,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="8">
         <v>26</v>
@@ -15493,7 +15508,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="8">
         <v>26</v>
@@ -15514,7 +15529,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="679" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="8">
         <v>27</v>
@@ -15535,7 +15550,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="8">
         <v>27</v>
@@ -15556,7 +15571,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="8">
         <v>27</v>
@@ -15577,7 +15592,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="682" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="8">
         <v>27</v>
@@ -15598,7 +15613,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="8">
         <v>27</v>
@@ -15619,7 +15634,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="8">
         <v>27</v>
@@ -15640,7 +15655,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="8">
         <v>27</v>
@@ -15661,7 +15676,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="8">
         <v>28</v>
@@ -15682,7 +15697,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="8">
         <v>28</v>
@@ -15703,7 +15718,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="8">
         <v>28</v>
@@ -15724,7 +15739,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="8">
         <v>28</v>
@@ -15745,7 +15760,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="8">
         <v>28</v>
@@ -15766,7 +15781,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="8">
         <v>28</v>
@@ -15787,7 +15802,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="8">
         <v>28</v>
@@ -15808,7 +15823,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="8">
         <v>28</v>
@@ -15829,7 +15844,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="8">
         <v>28</v>
@@ -15850,7 +15865,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="8">
         <v>28</v>
@@ -15871,7 +15886,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="8">
         <v>28</v>
@@ -15892,7 +15907,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="8">
         <v>28</v>
@@ -15913,7 +15928,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="8">
         <v>28</v>
@@ -15934,7 +15949,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A699" s="2">
         <v>18</v>
       </c>
@@ -15957,7 +15972,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="700" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="8">
         <v>28</v>
@@ -15978,7 +15993,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="8">
         <v>28</v>
@@ -15999,7 +16014,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="8">
         <v>28</v>
@@ -16020,7 +16035,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="8">
         <v>28</v>
@@ -16041,7 +16056,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="8">
         <v>28</v>
@@ -16062,7 +16077,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="8">
         <v>27</v>
@@ -16083,7 +16098,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="8">
         <v>27</v>
@@ -16104,7 +16119,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="707" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="8">
         <v>27</v>
@@ -16125,7 +16140,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="8">
         <v>27</v>
@@ -16146,7 +16161,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="8">
         <v>27</v>
@@ -16167,7 +16182,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="8">
         <v>27</v>
@@ -16188,7 +16203,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="8">
         <v>27</v>
@@ -16209,7 +16224,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="8">
         <v>27</v>
@@ -16230,7 +16245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="8">
         <v>27</v>
@@ -16251,7 +16266,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="8">
         <v>27</v>
@@ -16272,7 +16287,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="8">
         <v>27</v>
@@ -16293,7 +16308,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="8">
         <v>27</v>
@@ -16314,7 +16329,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="8">
         <v>27</v>
@@ -16335,7 +16350,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="8">
         <v>27</v>
@@ -16356,7 +16371,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="8">
         <v>27</v>
@@ -16377,7 +16392,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="8">
         <v>27</v>
@@ -16398,7 +16413,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="8">
         <v>27</v>
@@ -16419,7 +16434,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="8">
         <v>27</v>
@@ -16440,7 +16455,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="723" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="8">
         <v>26</v>
@@ -16461,7 +16476,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="8">
         <v>26</v>
@@ -16482,7 +16497,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="725" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="8">
         <v>26</v>
@@ -16503,7 +16518,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="8">
         <v>26</v>
@@ -16524,7 +16539,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="8">
         <v>26</v>
@@ -16545,7 +16560,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="8">
         <v>26</v>
@@ -16566,7 +16581,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="729" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="8">
         <v>26</v>
@@ -16587,7 +16602,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="8">
         <v>26</v>
@@ -16608,7 +16623,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="8">
         <v>26</v>
@@ -16629,7 +16644,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="8">
         <v>26</v>
@@ -16650,7 +16665,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="8">
         <v>26</v>
@@ -16671,7 +16686,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="8">
         <v>26</v>
@@ -16692,7 +16707,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="8">
         <v>26</v>
@@ -16713,7 +16728,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="736" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="8">
         <v>26</v>
@@ -16734,7 +16749,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="737" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="8">
         <v>26</v>
@@ -16755,7 +16770,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="8">
         <v>26</v>
@@ -16776,7 +16791,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="8">
         <v>27</v>
@@ -16797,7 +16812,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="8">
         <v>27</v>
@@ -16818,7 +16833,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="741" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="8">
         <v>27</v>
@@ -16839,7 +16854,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="8">
         <v>27</v>
@@ -16860,7 +16875,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="8">
         <v>29</v>
@@ -16881,7 +16896,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="8">
         <v>29</v>
@@ -16902,7 +16917,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="8">
         <v>29</v>
@@ -16923,7 +16938,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="8">
         <v>25</v>
@@ -16944,7 +16959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="8">
         <v>26</v>
@@ -16965,7 +16980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="8"/>
       <c r="C748" s="8" t="s">
@@ -16984,7 +16999,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="8">
         <v>27</v>
@@ -17005,7 +17020,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="8">
         <v>27</v>
@@ -17026,7 +17041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="8">
         <v>28</v>
@@ -17047,7 +17062,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="8">
         <v>29</v>
@@ -17068,7 +17083,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="8">
         <v>27</v>
@@ -17089,7 +17104,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="8">
         <v>27</v>
@@ -17110,7 +17125,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="8">
         <v>27</v>
@@ -17131,7 +17146,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="8">
         <v>28</v>
@@ -17152,7 +17167,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="8">
         <v>28</v>
@@ -17173,7 +17188,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="8">
         <v>28</v>
@@ -17194,7 +17209,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="8">
         <v>28</v>
@@ -17215,7 +17230,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="8">
         <v>26</v>
@@ -17236,7 +17251,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="8">
         <v>26</v>
@@ -17257,7 +17272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="8">
         <v>26</v>
@@ -17278,7 +17293,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="8">
         <v>26</v>
@@ -17299,7 +17314,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="764" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="8">
         <v>26</v>
@@ -17320,7 +17335,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="765" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="8">
         <v>28</v>
@@ -17341,7 +17356,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="8">
         <v>28</v>
@@ -17362,7 +17377,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="8">
         <v>27</v>
@@ -17383,7 +17398,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="8">
         <v>28</v>
@@ -17404,7 +17419,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="8">
         <v>28</v>
@@ -17425,7 +17440,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="8">
         <v>28</v>
@@ -17446,7 +17461,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="8">
         <v>28</v>
@@ -17467,7 +17482,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="8">
         <v>28</v>
@@ -17488,7 +17503,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="8">
         <v>28</v>
@@ -17509,7 +17524,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="8">
         <v>28</v>
@@ -17530,7 +17545,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="8">
         <v>28</v>
@@ -17551,7 +17566,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="8">
         <v>28</v>
@@ -17572,7 +17587,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="8">
         <v>28</v>
@@ -17593,7 +17608,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="8">
         <v>28</v>
@@ -17614,7 +17629,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="8">
         <v>28</v>
@@ -17635,7 +17650,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="8">
         <v>28</v>
@@ -17656,7 +17671,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="8">
         <v>28</v>
@@ -17677,7 +17692,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="8">
         <v>28</v>
@@ -17698,7 +17713,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="8">
         <v>28</v>
@@ -17719,7 +17734,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="8">
         <v>28</v>
@@ -17740,7 +17755,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="8">
         <v>28</v>
@@ -17761,7 +17776,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="8">
         <v>28</v>
@@ -17782,7 +17797,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="8">
         <v>28</v>
@@ -17803,7 +17818,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="788" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="8">
         <v>28</v>
@@ -17824,7 +17839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="8">
         <v>28</v>
@@ -17845,7 +17860,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="8">
         <v>28</v>
@@ -17866,7 +17881,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="8">
         <v>28</v>
@@ -17887,7 +17902,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="792" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="8">
         <v>28</v>
@@ -17908,7 +17923,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="793" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="8">
         <v>28</v>
@@ -17929,7 +17944,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="8">
         <v>29</v>
@@ -17950,7 +17965,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="8">
         <v>29</v>
@@ -17971,7 +17986,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="8">
         <v>29</v>
@@ -17992,7 +18007,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="8">
         <v>29</v>
@@ -18013,7 +18028,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="8">
         <v>29</v>
@@ -18034,7 +18049,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="8">
         <v>29</v>
@@ -18055,7 +18070,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="8">
         <v>29</v>
@@ -18076,7 +18091,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="801" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="8">
         <v>29</v>
@@ -18097,7 +18112,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="802" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="8">
         <v>29</v>
@@ -18118,7 +18133,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="8">
         <v>29</v>
@@ -18139,7 +18154,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="8">
         <v>29</v>
@@ -18160,7 +18175,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="8">
         <v>29</v>
@@ -18181,7 +18196,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="8">
         <v>29</v>
@@ -18202,7 +18217,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="807" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="8">
         <v>29</v>
@@ -18223,7 +18238,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="808" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="8">
         <v>29</v>
@@ -18244,7 +18259,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="8">
         <v>29</v>
@@ -18265,7 +18280,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="8">
         <v>29</v>
@@ -18286,7 +18301,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="8">
         <v>29</v>
@@ -18307,7 +18322,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="8">
         <v>29</v>
@@ -18328,7 +18343,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="813" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="8">
         <v>29</v>
@@ -18349,7 +18364,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="814" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="8">
         <v>29</v>
@@ -18370,7 +18385,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="815" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="8">
         <v>29</v>
@@ -18391,7 +18406,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="8">
         <v>29</v>
@@ -18412,7 +18427,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="8">
         <v>29</v>
@@ -18433,7 +18448,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="8">
         <v>29</v>
@@ -18454,7 +18469,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="819" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="8">
         <v>26</v>
@@ -18475,7 +18490,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="820" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="8"/>
       <c r="C820" s="8" t="s">
@@ -18494,7 +18509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="8"/>
       <c r="C821" s="8" t="s">
@@ -18513,7 +18528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="822" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="8"/>
       <c r="C822" s="8" t="s">
@@ -18532,7 +18547,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="8"/>
       <c r="C823" s="8" t="s">
@@ -18551,7 +18566,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="824" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="8"/>
       <c r="C824" s="8" t="s">
@@ -18570,7 +18585,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="825" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="8">
         <v>26</v>
@@ -18591,7 +18606,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="826" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="8">
         <v>26</v>
@@ -18612,7 +18627,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="827" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="8">
         <v>26</v>
@@ -18633,7 +18648,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="828" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="8">
         <v>27</v>
@@ -18654,7 +18669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="8">
         <v>27</v>
@@ -18675,7 +18690,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="830" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="8">
         <v>28</v>
@@ -18696,7 +18711,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="8">
         <v>29</v>
@@ -18717,7 +18732,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="8">
         <v>29</v>
@@ -18738,7 +18753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="8">
         <v>30</v>
@@ -18759,7 +18774,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="8">
         <v>28</v>
@@ -18780,7 +18795,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="8">
         <v>27</v>
@@ -18801,7 +18816,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="8">
         <v>29</v>
@@ -18822,7 +18837,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="8">
         <v>25</v>
@@ -18843,7 +18858,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="8">
         <v>28</v>
@@ -18864,7 +18879,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="839" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="8">
         <v>26</v>
@@ -18885,7 +18900,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="8">
         <v>26</v>
@@ -18906,7 +18921,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="8">
         <v>30</v>
@@ -18927,7 +18942,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="8">
         <v>30</v>
@@ -18948,7 +18963,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="8">
         <v>30</v>
@@ -18969,7 +18984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="8">
         <v>30</v>
@@ -18990,7 +19005,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="8">
         <v>30</v>
@@ -19011,7 +19026,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="8">
         <v>28</v>
@@ -19032,7 +19047,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="8">
         <v>27</v>
@@ -19053,7 +19068,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="8">
         <v>25</v>
@@ -19074,7 +19089,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="8">
         <v>29</v>
@@ -19095,7 +19110,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="8">
         <v>28</v>
@@ -19116,7 +19131,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="8"/>
       <c r="C851" s="8" t="s">
@@ -19135,7 +19150,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="852" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="8">
         <v>30</v>
@@ -19156,7 +19171,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="853" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="8">
         <v>28</v>
@@ -19177,7 +19192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="854" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="8">
         <v>28</v>
@@ -19198,7 +19213,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="8">
         <v>28</v>
@@ -19219,7 +19234,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="8">
         <v>29</v>
@@ -19240,7 +19255,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="857" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="8">
         <v>29</v>
@@ -19261,7 +19276,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="8">
         <v>29</v>
@@ -19282,7 +19297,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="8">
         <v>29</v>
@@ -19303,7 +19318,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="8">
         <v>29</v>
@@ -19324,7 +19339,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="8">
         <v>29</v>
@@ -19345,7 +19360,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="862" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="8">
         <v>29</v>
@@ -19366,7 +19381,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="8">
         <v>29</v>
@@ -19387,7 +19402,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="8">
         <v>29</v>
@@ -19408,7 +19423,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="8">
         <v>29</v>
@@ -19429,7 +19444,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="866" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="8">
         <v>30</v>
@@ -19450,7 +19465,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="8">
         <v>30</v>
@@ -19471,7 +19486,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="868" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="8">
         <v>30</v>
@@ -19492,7 +19507,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="8">
         <v>30</v>
@@ -19513,7 +19528,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="870" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="8">
         <v>30</v>
@@ -19534,7 +19549,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="8">
         <v>30</v>
@@ -19555,7 +19570,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="8">
         <v>30</v>
@@ -19576,7 +19591,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="8">
         <v>30</v>
@@ -19597,7 +19612,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="874" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="8">
         <v>30</v>
@@ -19618,7 +19633,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="8">
         <v>30</v>
@@ -19639,7 +19654,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="8">
         <v>30</v>
@@ -19660,7 +19675,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="8">
         <v>30</v>
@@ -19681,7 +19696,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="8">
         <v>30</v>
@@ -19702,7 +19717,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="8">
         <v>30</v>
@@ -19723,7 +19738,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="8">
         <v>30</v>
@@ -19744,7 +19759,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="8">
         <v>30</v>
@@ -19765,7 +19780,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="882" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="8">
         <v>30</v>
@@ -19786,7 +19801,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="8">
         <v>28</v>
@@ -19807,7 +19822,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="8"/>
       <c r="C884" s="8" t="s">
@@ -19826,7 +19841,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="885" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="8"/>
       <c r="C885" s="8" t="s">
@@ -19845,7 +19860,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="8"/>
       <c r="C886" s="8" t="s">
@@ -19864,7 +19879,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="8"/>
       <c r="C887" s="8" t="s">
@@ -19883,7 +19898,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="8"/>
       <c r="C888" s="8" t="s">
@@ -19902,7 +19917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="8"/>
       <c r="C889" s="8" t="s">
@@ -19921,7 +19936,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="8"/>
       <c r="C890" s="8" t="s">
@@ -19940,7 +19955,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="8"/>
       <c r="C891" s="8" t="s">
@@ -19959,7 +19974,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="892" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="8"/>
       <c r="C892" s="8" t="s">
@@ -19978,7 +19993,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="8"/>
       <c r="C893" s="8" t="s">
@@ -19997,7 +20012,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="8"/>
       <c r="C894" s="8" t="s">
@@ -20016,7 +20031,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="8"/>
       <c r="C895" s="8" t="s">
@@ -20035,7 +20050,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="8"/>
       <c r="C896" s="8" t="s">
@@ -20054,7 +20069,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="8"/>
       <c r="C897" s="8" t="s">
@@ -20073,7 +20088,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="898" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="8"/>
       <c r="C898" s="8" t="s">
@@ -20092,7 +20107,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="8"/>
       <c r="C899" s="8" t="s">
@@ -20111,7 +20126,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="900" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="8">
         <v>31</v>
@@ -20132,7 +20147,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="8">
         <v>30</v>
@@ -20153,7 +20168,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="8">
         <v>30</v>
@@ -20174,7 +20189,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="8">
         <v>31</v>
@@ -20195,7 +20210,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="8">
         <v>30</v>
@@ -20216,7 +20231,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="8">
         <v>30</v>
@@ -20237,7 +20252,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="906" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="8">
         <v>30</v>
@@ -20258,7 +20273,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="907" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="8">
         <v>30</v>
@@ -20279,7 +20294,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="908" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="8">
         <v>30</v>
@@ -20300,7 +20315,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="909" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="8">
         <v>30</v>
@@ -20321,7 +20336,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="8">
         <v>30</v>
@@ -20342,7 +20357,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="8">
         <v>30</v>
@@ -20363,7 +20378,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="8">
         <v>29</v>
@@ -20384,7 +20399,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="913" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="8">
         <v>29</v>
@@ -20405,7 +20420,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="8">
         <v>30</v>
@@ -20426,7 +20441,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="8">
         <v>30</v>
@@ -20447,7 +20462,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="8">
         <v>31</v>
@@ -20468,7 +20483,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="8">
         <v>30</v>
@@ -20489,7 +20504,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="8">
         <v>30</v>
@@ -20510,7 +20525,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="8">
         <v>30</v>
@@ -20531,7 +20546,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="920" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="8">
         <v>30</v>
@@ -20552,7 +20567,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="8">
         <v>30</v>
@@ -20573,7 +20588,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="8">
         <v>31</v>
@@ -20594,10 +20609,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C923" s="8" t="s">
         <v>29</v>
@@ -20615,9 +20630,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
-      <c r="B924" s="8"/>
+      <c r="B924" s="8">
+        <v>30</v>
+      </c>
       <c r="C924" s="8" t="s">
         <v>29</v>
       </c>
@@ -20634,7 +20651,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B925" s="8">
         <v>31</v>
       </c>
@@ -20654,7 +20671,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B926" s="8">
         <v>31</v>
       </c>
@@ -20674,7 +20691,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B927" s="8">
         <v>31</v>
       </c>
@@ -20694,7 +20711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B928" s="8">
         <v>30</v>
       </c>
@@ -20714,7 +20731,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="929" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B929" s="8">
         <v>30</v>
       </c>
@@ -20734,7 +20751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="930" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B930" s="8">
         <v>30</v>
       </c>
@@ -20754,7 +20771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="931" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B931" s="8">
         <v>30</v>
       </c>
@@ -20774,7 +20791,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="932" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B932" s="8">
         <v>30</v>
       </c>
@@ -20794,7 +20811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="933" spans="2:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B933" s="8">
         <v>30</v>
       </c>
@@ -20814,37 +20831,82 @@
         <v>90</v>
       </c>
     </row>
+    <row r="934" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B934" s="8">
+        <v>30</v>
+      </c>
+      <c r="C934" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D934" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E934" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F934" s="8">
+        <v>81</v>
+      </c>
+      <c r="G934" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="935" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B935" s="8">
+        <v>30</v>
+      </c>
+      <c r="C935" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D935" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E935" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F935" s="8">
+        <v>91</v>
+      </c>
+      <c r="G935" s="8">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F130:F157 F265:F340 G410 G144:G157 F224:F259 F158:G223 F479:F500 G413:G447 F343:F475 F502:F924">
-    <cfRule type="expression" dxfId="57" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="135" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2919,F130,$E$6:$E$2919,E130,$D$6:$D$2919,D130,$C$6:$C$2919,C130)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F87">
-    <cfRule type="expression" dxfId="56" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="147" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2638,F2,$E$6:$E$2638,E2,$D$6:$D$2638,D2,$C$6:$C$2638,C2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F342">
-    <cfRule type="expression" dxfId="55" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="148" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2919,F342,$E$6:$E$2919,E341,$D$6:$D$2919,D341,$C$6:$C$2919,C341)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F122 F88:F115">
-    <cfRule type="expression" dxfId="54" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="149" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2638,F88,$E$6:$E$2638,E88,$D$6:$D$2638,D88,$C$6:$C$2638,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260:F263">
-    <cfRule type="expression" dxfId="53" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="151" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2919,F260,$E$6:$E$2919,E261,$D$6:$D$2919,D261,$C$6:$C$2919,C261)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F934:F935">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>COUNTIFS($F$6:$F$2919,F934,$E$6:$E$2919,E934,$D$6:$D$2919,D934,$C$6:$C$2919,C934)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="نام مورد نظر موجود نمی باشد ." sqref="E485:E924 E2:E475">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="نام مورد نظر موجود نمی باشد ." sqref="E485:E924 E2:E475 E934:E935">
       <formula1>name</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="نوع کار موجود نیست" sqref="D485:D924 D2:D475">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="نوع کار موجود نیست" sqref="D485:D924 D2:D475 D934:D935">
       <formula1>kar</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="! کد تولید تکراری می باشد" sqref="F119:F122 F2:F115">
@@ -20853,7 +20915,7 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="! کد تولید تکراری می باشد" sqref="F342">
       <formula1>COUNTIFS($F$6:$F$2916,F342,$E$6:$E$2916,E341,$D$6:$D$2916,D341,$C$6:$C$2916,C341)=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="! کد تولید تکراری می باشد" sqref="F479:F500 F130:F340 F502:F924 F343:F475">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="! کد تولید تکراری می باشد" sqref="F479:F500 F130:F340 F502:F924 F343:F475 F934:F935">
       <formula1>COUNTIFS($F$6:$F$2916,F130,$E$6:$E$2916,E130,$D$6:$D$2916,D130,$C$6:$C$2916,C130)=1</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="! کد تولید تکراری می باشد" sqref="B356:B361">
@@ -22667,7 +22729,7 @@
   </sheetData>
   <autoFilter ref="A1:F83"/>
   <conditionalFormatting sqref="F22:F26 E19:E82 E2:E17">
-    <cfRule type="expression" dxfId="30" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="153" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2923,E2,$E$6:$E$2923,D2,$D$6:$D$2923,C2,$C$6:$C$2923,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23302,7 +23364,7 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:F30">
-    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2925,E2,$E$6:$E$2925,D2,$D$6:$D$2925,C2,$C$6:$C$2925,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24186,17 +24248,17 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:E12">
-    <cfRule type="expression" dxfId="28" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2644,E2,$E$6:$E$2644,D2,$D$6:$D$2644,C2,$C$6:$C$2644,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E20">
-    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2644,E13,$E$6:$E$2644,D13,$D$6:$D$2644,C13,$C$6:$C$2644,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F39 E21:E43">
-    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2925,E21,$E$6:$E$2925,D21,$D$6:$D$2925,C21,$C$6:$C$2925,B21)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24599,12 +24661,12 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2644,E2,$E$6:$E$2644,D2,$D$6:$D$2644,C2,$C$6:$C$2644,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E18 F11:F12">
-    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2925,E8,$E$6:$E$2925,D8,$D$6:$D$2925,C8,$C$6:$C$2925,B8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25042,12 +25104,12 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="23" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2642,E2,$E$6:$E$2642,D2,$D$6:$D$2642,C2,$C$6:$C$2642,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E20">
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2923,E3,$E$6:$E$2923,D3,$D$6:$D$2923,C3,$C$6:$C$2923,B3)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25146,7 +25208,7 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2923,E2,$E$6:$E$2923,D2,$D$6:$D$2923,C2,$C$6:$C$2923,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25259,7 +25321,7 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:E4">
-    <cfRule type="expression" dxfId="20" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="154" stopIfTrue="1">
       <formula>COUNTIFS($F$4:$F$2917,E2,$E$4:$E$2917,D2,$D$4:$D$2917,C2,$C$4:$C$2917,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25332,7 +25394,7 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2923,E2,$E$6:$E$2923,D3,$D$6:$D$2923,C3,$C$6:$C$2923,B3)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25733,12 +25795,12 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E5:E19">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2922,E5,$E$6:$E$2922,D5,$D$6:$D$2922,C5,$C$6:$C$2922,B5)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E4">
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2641,E2,$E$6:$E$2641,D2,$D$6:$D$2641,C2,$C$6:$C$2641,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28615,12 +28677,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>COUNTIFS($F$7:$F$2595,E1,$E$7:$E$2595,D1,$D$7:$D$2595,C1,$C$7:$C$2595,B1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E143 E3:F21">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2920,E3,$E$6:$E$2920,D3,$D$6:$D$2920,C3,$C$6:$C$2920,B3)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28899,7 +28961,7 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:E14">
-    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2920,E2,$E$6:$E$2920,D2,$D$6:$D$2920,C2,$C$6:$C$2920,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29275,12 +29337,12 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="F11:F12 E8:E17 E2:E6">
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>COUNTIFS($F$5:$F$2921,E2,$E$5:$E$2921,D2,$D$5:$D$2921,C2,$C$5:$C$2921,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$5:$F$2921,E7,$E$5:$E$2921,D8,$D$5:$D$2921,C8,$C$5:$C$2921,B8)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29301,10 +29363,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="A1:F50"/>
+    <sheetView rightToLeft="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30313,28 +30375,73 @@
         <v>180</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>81</v>
+      </c>
+      <c r="F51">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>91</v>
+      </c>
+      <c r="F52">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:E25">
-    <cfRule type="expression" dxfId="12" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="88" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2637,E2,$E$6:$E$2637,D2,$D$6:$D$2637,C2,$C$6:$C$2637,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E37">
-    <cfRule type="expression" dxfId="11" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="89" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2637,E26,$E$6:$E$2637,D26,$D$6:$D$2637,C26,$C$6:$C$2637,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E50">
-    <cfRule type="expression" dxfId="10" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="90" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2918,E38,$E$6:$E$2918,D38,$D$6:$D$2918,C38,$C$6:$C$2918,B38)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="نوع کار موجود نیست" sqref="C2:C50">
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>COUNTIFS($F$6:$F$2919,E51,$E$6:$E$2919,D51,$D$6:$D$2919,C51,$C$6:$C$2919,B51)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="نوع کار موجود نیست" sqref="C2:C52">
       <formula1>kar</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="نام مورد نظر موجود نمی باشد ." sqref="D2:D50">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="نام مورد نظر موجود نمی باشد ." sqref="D2:D52">
       <formula1>name</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="! کد تولید تکراری می باشد" sqref="E2:E37">
@@ -30342,6 +30449,9 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="! کد تولید تکراری می باشد" sqref="E38:E50">
       <formula1>COUNTIFS($F$6:$F$2915,E38,$E$6:$E$2915,D38,$D$6:$D$2915,C38,$C$6:$C$2915,B38)=1</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="! کد تولید تکراری می باشد" sqref="E51:E52">
+      <formula1>COUNTIFS($F$6:$F$2916,E51,$E$6:$E$2916,D51,$D$6:$D$2916,C51,$C$6:$C$2916,B51)=1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30352,7 +30462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D55" sqref="A1:F60"/>
     </sheetView>
   </sheetViews>
@@ -31556,17 +31666,17 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:E28">
-    <cfRule type="expression" dxfId="9" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="99" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2637,E2,$E$6:$E$2637,D2,$D$6:$D$2637,C2,$C$6:$C$2637,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E32">
-    <cfRule type="expression" dxfId="8" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="100" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2637,E29,$E$6:$E$2637,D29,$D$6:$D$2637,C29,$C$6:$C$2637,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F39 E33:E60">
-    <cfRule type="expression" dxfId="7" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="101" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2918,E33,$E$6:$E$2918,D33,$D$6:$D$2918,C33,$C$6:$C$2918,B33)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31593,8 +31703,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F161" sqref="F161"/>
+    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F276" sqref="F276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36918,32 +37028,32 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2639,E2,$E$6:$E$2639,D2,$D$6:$D$2639,C2,$C$6:$C$2639,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E18 E8:E13">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2639,E8,$E$6:$E$2639,D8,$D$6:$D$2639,C8,$C$6:$C$2639,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130:E259 F99:F116 E45:E126 E26:E42">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2920,E26,$E$6:$E$2920,D26,$D$6:$D$2920,C26,$C$6:$C$2920,B26)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2920,E43,$E$6:$E$2920,D44,$D$6:$D$2920,C44,$C$6:$C$2920,B44)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E260:E264">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2919,E260,$E$6:$E$2919,D260,$D$6:$D$2919,C260,$C$6:$C$2919,B260)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E265:E270">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2923,E265,$E$6:$E$2923,D265,$D$6:$D$2923,C265,$C$6:$C$2923,B265)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38795,7 +38905,7 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E31:E90 E2:F30">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2920,E2,$E$6:$E$2920,D2,$D$6:$D$2920,C2,$C$6:$C$2920,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38944,7 +39054,7 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2920,E2,$E$6:$E$2920,D2,$D$6:$D$2920,C2,$C$6:$C$2920,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39220,7 +39330,7 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:E14">
-    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2920,E2,$E$6:$E$2920,D2,$D$6:$D$2920,C2,$C$6:$C$2920,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39376,7 +39486,7 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2920,E2,$E$6:$E$2920,D2,$D$6:$D$2920,C2,$C$6:$C$2920,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39509,12 +39619,12 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="2" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2919,E2,$E$6:$E$2919,D3,$D$6:$D$2919,C3,$C$6:$C$2919,B3)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5">
-    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2919,E3,$E$6:$E$2919,D3,$D$6:$D$2919,C3,$C$6:$C$2919,B3)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39740,7 +39850,7 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E4:E11 E2">
-    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2919,E2,$E$6:$E$2919,D2,$D$6:$D$2919,C2,$C$6:$C$2919,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40017,7 +40127,7 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:E14">
-    <cfRule type="expression" dxfId="34" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="151" stopIfTrue="1">
       <formula>COUNTIFS($F$2:$F$2919,E2,$E$2:$E$2919,D2,$D$2:$D$2919,C2,$C$2:$C$2919,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40404,17 +40514,17 @@
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <conditionalFormatting sqref="E2:E9">
-    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2644,E2,$E$6:$E$2644,D2,$D$6:$D$2644,C2,$C$6:$C$2644,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E14">
-    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="2" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2925,E10,$E$6:$E$2925,D10,$D$6:$D$2925,C10,$C$6:$C$2925,B10)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F18">
-    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="1" stopIfTrue="1">
       <formula>COUNTIFS($F$6:$F$2920,E15,$E$6:$E$2920,D15,$D$6:$D$2920,C15,$C$6:$C$2920,B15)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
